--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D9842-8555-4369-88ED-67F73A6D9228}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E6B32-7689-48A6-AA99-F2EE50E71FCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>MAE</t>
   </si>
@@ -58,6 +58,11 @@
   </si>
   <si>
     <t>1 layer
+100 neurones
+5 epochs</t>
+  </si>
+  <si>
+    <t>2 layers 
 100 neurones
 5 epochs</t>
   </si>
@@ -439,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAAC9C-E2D3-4E2D-BBD1-EB8D077F2CFC}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,20 +540,32 @@
         <v>68.594705249537199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.2778660554429901</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45.036594244948503</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5.4288098774124496</v>
+      </c>
+      <c r="F5" s="5">
+        <v>46.7165688643625</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.3103776719362301</v>
+      </c>
+      <c r="H5" s="5">
+        <v>67.626021486366</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -558,7 +575,9 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -567,14 +586,24 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E6B32-7689-48A6-AA99-F2EE50E71FCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3993AF5-073C-42E7-B1B2-5B733AA9FA73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
+    <workbookView xWindow="660" yWindow="1584" windowWidth="17280" windowHeight="8964" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>MAE</t>
   </si>
@@ -57,12 +57,32 @@
     <t>RT</t>
   </si>
   <si>
-    <t>1 layer
+    <t>tanh
+1 layer
+75 neurones
+1 epoch</t>
+  </si>
+  <si>
+    <t>relu
+1 layer
 100 neurones
 5 epochs</t>
   </si>
   <si>
-    <t>2 layers 
+    <t>relu
+1 layer
+75 neurones
+5 epochs</t>
+  </si>
+  <si>
+    <t>relu
+1 layer
+75 neurones
+1 epoch</t>
+  </si>
+  <si>
+    <t>relu
+2 layers 
 100 neurones
 5 epochs</t>
   </si>
@@ -117,18 +137,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAAC9C-E2D3-4E2D-BBD1-EB8D077F2CFC}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,153 +477,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="1">
         <v>7.0165767797607304</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>80.411359457736793</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>7.0165767797607304</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>80.411359457736793</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>6.3575701117866199</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>67.739008383996804</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.2601780456736202</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45.182936596117301</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.2666914882610696</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45.225119515962398</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.3578329844422097</v>
+      </c>
+      <c r="H4" s="3">
+        <v>68.594705249537199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.2686560956478399</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45.1675852943156</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.2823502927343702</v>
+      </c>
+      <c r="F5" s="3">
+        <v>46.298685555673998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.34095360190903</v>
+      </c>
+      <c r="H5" s="3">
+        <v>67.749804576394595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.2560143883820398</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45.4314388113755</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.2483789404706398</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45.230100104760098</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.3368504723423698</v>
+      </c>
+      <c r="H6" s="3">
+        <v>67.889343689842903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>5.2601780456736202</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45.182936596117301</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5.2666914882610696</v>
-      </c>
-      <c r="F4" s="5">
-        <v>45.225119515962398</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.3578329844422097</v>
-      </c>
-      <c r="H4" s="5">
-        <v>68.594705249537199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="C7" s="3">
+        <v>5.4145806587385099</v>
+      </c>
+      <c r="D7" s="3">
+        <v>47.471631444795399</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.3371875418816499</v>
+      </c>
+      <c r="F7" s="3">
+        <v>46.618369426671102</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.4714785104830597</v>
+      </c>
+      <c r="H7" s="3">
+        <v>69.519339437762099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
         <v>5.2778660554429901</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D8" s="3">
         <v>45.036594244948503</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E8" s="3">
         <v>5.4288098774124496</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F8" s="3">
         <v>46.7165688643625</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G8" s="3">
         <v>6.3103776719362301</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H8" s="3">
         <v>67.626021486366</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3993AF5-073C-42E7-B1B2-5B733AA9FA73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0226F7-0308-48F7-9FFF-4CE93122F6BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1584" windowWidth="17280" windowHeight="8964" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>MAE</t>
   </si>
@@ -85,6 +85,12 @@
 2 layers 
 100 neurones
 5 epochs</t>
+  </si>
+  <si>
+    <t>relu
+1 layer
+75 neurones
+15 epoch</t>
   </si>
 </sst>
 </file>
@@ -145,10 +151,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAAC9C-E2D3-4E2D-BBD1-EB8D077F2CFC}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,18 +483,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
@@ -511,10 +517,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1">
         <v>7.0165767797607304</v>
       </c>
@@ -535,7 +541,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -561,7 +567,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -585,7 +591,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -609,67 +615,79 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.2653352629833297</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45.058530078693401</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.2690184144767702</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45.662487080548203</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6.3459707842085402</v>
+      </c>
+      <c r="H7" s="3">
+        <v>67.541817597329796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>5.4145806587385099</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>47.471631444795399</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>5.3371875418816499</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>46.618369426671102</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>6.4714785104830597</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>69.519339437762099</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>5.2778660554429901</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>45.036594244948503</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>5.4288098774124496</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>46.7165688643625</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <v>6.3103776719362301</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3">
         <v>67.626021486366</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -679,7 +697,9 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -688,14 +708,24 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A4:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0226F7-0308-48F7-9FFF-4CE93122F6BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36E952-95A7-4933-9D28-EC2A6555A6AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>MAE</t>
   </si>
@@ -91,6 +91,19 @@
 1 layer
 75 neurones
 15 epoch</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Not optimzed</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu',
+ 'alpha': 0.0001,
+ 'hidden_layer_sizes': (100,),
+ 'max_iter': 100,
+ 'solver': 'adam'}</t>
   </si>
 </sst>
 </file>
@@ -473,7 +486,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,11 +699,17 @@
         <v>67.626021486366</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.27602081386918</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45.204771334127301</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -700,9 +719,15 @@
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.3455557041292696</v>
+      </c>
+      <c r="D11" s="3">
+        <v>46.244431329590597</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -710,13 +735,27 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.4270249068444798</v>
+      </c>
+      <c r="D12" s="3">
+        <v>65.779687929005604</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.5168872981630397</v>
+      </c>
+      <c r="F12" s="3">
+        <v>67.335938575919002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7.0065944302804404</v>
+      </c>
+      <c r="H12" s="3">
+        <v>114.065545082369</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36E952-95A7-4933-9D28-EC2A6555A6AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44311243-D4F0-4042-907D-3E8DEDF0C88E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>MAE</t>
   </si>
@@ -104,6 +104,12 @@
  'hidden_layer_sizes': (100,),
  'max_iter': 100,
  'solver': 'adam'}</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (100, 50, 10), 'max_iter': 200, 'solver': 'adam'}</t>
   </si>
 </sst>
 </file>
@@ -483,9 +489,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAAC9C-E2D3-4E2D-BBD1-EB8D077F2CFC}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -699,72 +705,104 @@
         <v>67.626021486366</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.2500945110751598</v>
+      </c>
+      <c r="F10" s="3">
+        <v>44.559833252168097</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.39620928808767</v>
+      </c>
+      <c r="H10" s="3">
+        <v>67.998787696666597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>5.27602081386918</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>45.204771334127301</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>5.3455557041292696</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>46.244431329590597</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>5.4270249068444798</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>65.779687929005604</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>5.5168872981630397</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>67.335938575919002</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>7.0065944302804404</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>114.065545082369</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Performances.xlsx
+++ b/Performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walid\UniCode\CSI4506\CSI4506-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44311243-D4F0-4042-907D-3E8DEDF0C88E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9249FC-C134-4DED-8A17-3BD3151F0175}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EFBD5C-037A-4BF2-AE76-DE1F99D575BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>MAE</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (100, 50, 10), 'max_iter': 200, 'solver': 'adam'}</t>
+  </si>
+  <si>
+    <t>Big feature set</t>
+  </si>
+  <si>
+    <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (50,), 'learning_rate_init': 0.01, 'max_iter': 200, 'solver': 'adam'}</t>
   </si>
 </sst>
 </file>
@@ -170,10 +176,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,33 +495,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAAC9C-E2D3-4E2D-BBD1-EB8D077F2CFC}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="8" width="11.109375" customWidth="1"/>
+    <col min="3" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,12 +544,18 @@
       <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1">
         <v>7.0165767797607304</v>
       </c>
@@ -558,9 +574,15 @@
       <c r="H3" s="1">
         <v>67.739008383996804</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -584,9 +606,15 @@
       <c r="H4" s="3">
         <v>68.594705249537199</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -608,9 +636,15 @@
       <c r="H5" s="3">
         <v>67.749804576394595</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -632,9 +666,15 @@
       <c r="H6" s="3">
         <v>67.889343689842903</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -656,9 +696,15 @@
       <c r="H7" s="3">
         <v>67.541817597329796</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -680,9 +726,15 @@
       <c r="H8" s="3">
         <v>69.519339437762099</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -704,9 +756,15 @@
       <c r="H9" s="3">
         <v>67.626021486366</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="I9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -728,81 +786,116 @@
       <c r="H10" s="3">
         <v>67.998787696666597</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>4.9094195613950298</v>
+      </c>
+      <c r="J11" s="3">
+        <v>39.887917632102102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>5.27602081386918</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>45.204771334127301</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>5.3455557041292696</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>46.244431329590597</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>5.4270249068444798</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>65.779687929005604</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>5.5168872981630397</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F14" s="3">
         <v>67.335938575919002</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>7.0065944302804404</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H14" s="3">
         <v>114.065545082369</v>
       </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="7">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
